--- a/Documentatie/Acceptatie Test.xlsx
+++ b/Documentatie/Acceptatie Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\JG Webmarketing\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel Project\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A3048C-5DFF-4042-B53A-8078C6AD4B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A3A75D-C677-4E70-A0C0-7438D11AC845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="5" r:id="rId1"/>
@@ -3493,10 +3493,10 @@
   <dimension ref="A1:T999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4993,19 +4993,13 @@
       <c r="E40" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L40" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="26"/>
       <c r="N40" s="27"/>
       <c r="O40" s="10"/>
@@ -5030,19 +5024,13 @@
       <c r="E41" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L41" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="26"/>
       <c r="N41" s="27"/>
       <c r="O41" s="10"/>
@@ -5067,19 +5055,13 @@
       <c r="E42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L42" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="26"/>
       <c r="N42" s="27"/>
       <c r="O42" s="10"/>
@@ -5104,7 +5086,7 @@
       <c r="E43" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="10"/>
